--- a/CBO NIPA comparison.xlsx
+++ b/CBO NIPA comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D4518-0165-4F30-A74D-F749A6C63266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1582B3-B599-48EF-95A0-DA1B7D15414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9589D34-1559-4E02-B9F6-794E0F2B6B2D}">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="69" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="69" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6265,13 +6265,13 @@
         <v>1053</v>
       </c>
       <c r="L31" s="83">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="M31" s="83">
-        <v>911</v>
+        <v>863</v>
       </c>
       <c r="N31" s="91">
-        <v>965</v>
+        <v>880</v>
       </c>
       <c r="O31" s="82"/>
     </row>
@@ -9256,53 +9256,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">45RU2JKQZF2C-997389622-57</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">
+      <Url>https://cbogov.sharepoint.com/sites/cbolife/resources/editing-publishing/_layouts/15/DocIdRedir.aspx?ID=45RU2JKQZF2C-997389622-57</Url>
+      <Description>45RU2JKQZF2C-997389622-57</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9513,17 +9477,53 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">45RU2JKQZF2C-997389622-57</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">
-      <Url>https://cbogov.sharepoint.com/sites/cbolife/resources/editing-publishing/_layouts/15/DocIdRedir.aspx?ID=45RU2JKQZF2C-997389622-57</Url>
-      <Description>45RU2JKQZF2C-997389622-57</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9536,10 +9536,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A04B03F-C5FA-4EBD-8DCF-4A46F3164370}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9565,12 +9567,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A04B03F-C5FA-4EBD-8DCF-4A46F3164370}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CBO NIPA comparison.xlsx
+++ b/CBO NIPA comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1582B3-B599-48EF-95A0-DA1B7D15414F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73FEF3-33CA-4EEE-8A6B-966B0DEB717B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="151">
   <si>
     <t>Contents</t>
   </si>
@@ -493,21 +493,31 @@
     <t>Grants (Compared to our projections for BEA data, not our spread out assumptions)</t>
   </si>
   <si>
-    <t>differs bc of investment</t>
-  </si>
-  <si>
     <t>FIM C grants</t>
+  </si>
+  <si>
+    <t>Differs because the CBO-NIPA comparison table doesn't include investment</t>
+  </si>
+  <si>
+    <t>Level and Percent Differences</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -985,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1219,8 +1229,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="507">
+  <cellStyleXfs count="508">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1734,8 +1768,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1895,21 +1930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1917,9 +1937,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1932,17 +1949,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1977,8 +1988,67 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="507">
+  <cellStyles count="508">
     <cellStyle name="20% - Accent1 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent3 2" xfId="193" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2316,6 +2386,7 @@
     <cellStyle name="Note 4" xfId="279" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
     <cellStyle name="Note 5" xfId="280" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
     <cellStyle name="Output 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Percent" xfId="507" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
     <cellStyle name="Percent 2 10" xfId="427" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
     <cellStyle name="Percent 2 11" xfId="428" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
@@ -3132,20 +3203,20 @@
     <row r="3" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -3230,19 +3301,19 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
       <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3674,19 +3745,19 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4491,19 +4562,19 @@
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71"/>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
       <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4596,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9589D34-1559-4E02-B9F6-794E0F2B6B2D}">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="69" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="69" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4608,6 +4679,7 @@
     <col min="9" max="9" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" customWidth="1"/>
     <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6119,56 +6191,55 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="86" t="s">
+      <c r="I27" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85">
+      <c r="J27" s="78"/>
+      <c r="K27" s="79">
         <v>2021</v>
       </c>
-      <c r="L27" s="85">
+      <c r="L27" s="79">
         <v>2022</v>
       </c>
-      <c r="M27" s="85">
+      <c r="M27" s="79">
         <v>2023</v>
       </c>
-      <c r="N27" s="85">
+      <c r="N27" s="79">
         <v>2024</v>
       </c>
-      <c r="O27" s="87"/>
+      <c r="O27" s="81"/>
     </row>
     <row r="28" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="80" t="s">
+      <c r="J28" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="97">
         <f t="shared" ref="K28:N28" si="3">C50</f>
         <v>1197</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="97">
         <f t="shared" si="3"/>
         <v>1220.528</v>
       </c>
-      <c r="M28" s="75">
+      <c r="M28" s="97">
         <f t="shared" si="3"/>
         <v>1236.6500000000001</v>
       </c>
-      <c r="N28" s="75">
+      <c r="N28" s="97">
         <f t="shared" si="3"/>
         <v>1261.846</v>
       </c>
-      <c r="O28" s="87"/>
-      <c r="P28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O28" s="95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="73" t="s">
         <v>58</v>
       </c>
@@ -6187,26 +6258,26 @@
       <c r="G29">
         <v>2347.9670000000001</v>
       </c>
-      <c r="I29" s="100"/>
-      <c r="J29" s="90" t="s">
+      <c r="I29" s="92"/>
+      <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="82">
+      <c r="K29" s="98">
         <v>1552</v>
       </c>
-      <c r="L29" s="83">
+      <c r="L29" s="99">
         <f>V5</f>
         <v>1583.7568000424626</v>
       </c>
-      <c r="M29" s="83">
-        <f t="shared" ref="M29:N29" si="4">W5</f>
+      <c r="M29" s="99">
+        <f>W5</f>
         <v>1595.469600604732</v>
       </c>
-      <c r="N29" s="83">
-        <f t="shared" si="4"/>
+      <c r="N29" s="99">
+        <f>X5</f>
         <v>1627.4750799967878</v>
       </c>
-      <c r="O29" s="87"/>
+      <c r="O29" s="81"/>
     </row>
     <row r="30" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="73" t="s">
@@ -6227,29 +6298,29 @@
       <c r="G30">
         <v>343.9</v>
       </c>
-      <c r="I30" s="97" t="s">
+      <c r="I30" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J30" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="97">
         <f>C57</f>
         <v>1053.453</v>
       </c>
-      <c r="L30" s="75">
+      <c r="L30" s="97">
         <f>D57</f>
         <v>996.57500000000005</v>
       </c>
-      <c r="M30" s="75">
-        <f t="shared" ref="M30:N30" si="5">E57</f>
+      <c r="M30" s="97">
+        <f t="shared" ref="M30:N30" si="4">E57</f>
         <v>835.29</v>
       </c>
-      <c r="N30" s="76">
-        <f t="shared" si="5"/>
+      <c r="N30" s="100">
+        <f t="shared" si="4"/>
         <v>796.70399999999995</v>
       </c>
-      <c r="O30" s="82"/>
+      <c r="O30" s="77"/>
     </row>
     <row r="31" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="73"/>
@@ -6257,23 +6328,23 @@
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" s="82">
+      <c r="I31" s="90"/>
+      <c r="J31" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="98">
         <v>1053</v>
       </c>
-      <c r="L31" s="83">
+      <c r="L31" s="99">
         <v>1055</v>
       </c>
-      <c r="M31" s="83">
+      <c r="M31" s="99">
         <v>863</v>
       </c>
-      <c r="N31" s="91">
+      <c r="N31" s="101">
         <v>880</v>
       </c>
-      <c r="O31" s="82"/>
+      <c r="O31" s="77"/>
     </row>
     <row r="32" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="73" t="s">
@@ -6294,29 +6365,29 @@
       <c r="G32">
         <v>187.04400000000001</v>
       </c>
-      <c r="I32" s="95" t="s">
+      <c r="I32" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="97">
         <f>C30</f>
         <v>259.06299999999999</v>
       </c>
-      <c r="L32" s="75">
+      <c r="L32" s="97">
         <f>D30</f>
         <v>299.779</v>
       </c>
-      <c r="M32" s="75">
+      <c r="M32" s="97">
         <f>E30</f>
         <v>339.40499999999997</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="100">
         <f>F30</f>
         <v>340.46699999999998</v>
       </c>
-      <c r="O32" s="82"/>
+      <c r="O32" s="77"/>
     </row>
     <row r="33" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -6337,26 +6408,26 @@
       <c r="G33">
         <v>35.039000000000001</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="81" t="s">
+      <c r="I33" s="88"/>
+      <c r="J33" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="88">
+      <c r="K33" s="102">
         <v>259.2</v>
       </c>
-      <c r="L33" s="77">
+      <c r="L33" s="103">
         <f>V22</f>
         <v>335.07970889492697</v>
       </c>
-      <c r="M33" s="77">
+      <c r="M33" s="103">
         <f>W22</f>
         <v>348.53968842729967</v>
       </c>
-      <c r="N33" s="78">
+      <c r="N33" s="104">
         <f>X22</f>
         <v>346.00617952522259</v>
       </c>
-      <c r="O33" s="82"/>
+      <c r="O33" s="77"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
@@ -6377,29 +6448,29 @@
       <c r="G34">
         <v>2913.9490000000001</v>
       </c>
-      <c r="I34" s="95" t="s">
+      <c r="I34" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="80" t="s">
+      <c r="J34" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="97">
         <f>C35+C29+C32</f>
         <v>3575.8969999999995</v>
       </c>
-      <c r="L34" s="75">
+      <c r="L34" s="97">
         <f>D35+D29+D32</f>
         <v>3955.6329999999998</v>
       </c>
-      <c r="M34" s="75">
+      <c r="M34" s="97">
         <f>E35+E29+E32</f>
         <v>4106.2489999999998</v>
       </c>
-      <c r="N34" s="75">
+      <c r="N34" s="97">
         <f>F35+F29+F32</f>
         <v>4247.6620000000003</v>
       </c>
-      <c r="O34" s="87"/>
+      <c r="O34" s="81"/>
     </row>
     <row r="35" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="73" t="s">
@@ -6420,26 +6491,26 @@
       <c r="G35">
         <v>1800.52</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="81" t="s">
+      <c r="I35" s="88"/>
+      <c r="J35" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="77">
+      <c r="K35" s="103">
         <v>3576</v>
       </c>
-      <c r="L35" s="77">
+      <c r="L35" s="103">
         <f>V20</f>
         <v>3823.6003681122093</v>
       </c>
-      <c r="M35" s="77">
+      <c r="M35" s="103">
         <f>W20</f>
         <v>3979.8787883638461</v>
       </c>
-      <c r="N35" s="77">
+      <c r="N35" s="103">
         <f>X20</f>
         <v>4129.0155090637536</v>
       </c>
-      <c r="O35" s="87"/>
+      <c r="O35" s="81"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -6460,29 +6531,29 @@
       <c r="G36">
         <v>165.602</v>
       </c>
-      <c r="I36" s="95" t="s">
+      <c r="I36" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="80" t="s">
+      <c r="J36" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="97">
         <f>C53</f>
         <v>3605.8330000000001</v>
       </c>
-      <c r="L36" s="75">
+      <c r="L36" s="97">
         <f>D53</f>
         <v>2832.5949999999998</v>
       </c>
-      <c r="M36" s="75">
+      <c r="M36" s="97">
         <f>E53</f>
         <v>2833.72</v>
       </c>
-      <c r="N36" s="75">
+      <c r="N36" s="97">
         <f>F53</f>
         <v>2976.7339999999999</v>
       </c>
-      <c r="O36" s="87"/>
+      <c r="O36" s="81"/>
     </row>
     <row r="37" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
@@ -6503,26 +6574,26 @@
       <c r="G37">
         <v>85.49</v>
       </c>
-      <c r="I37" s="96"/>
-      <c r="J37" s="81" t="s">
+      <c r="I37" s="88"/>
+      <c r="J37" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="77">
+      <c r="K37" s="103">
         <v>3605.9</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="103">
         <f>SUM(V9:V18)-V12-V11</f>
         <v>2787.5682504927026</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="103">
         <f>SUM(W9:W18)-W12-W11</f>
         <v>2722.3073615321164</v>
       </c>
-      <c r="N37" s="77">
+      <c r="N37" s="103">
         <f>SUM(X9:X18)-X12-X11</f>
         <v>2844.2064126368214</v>
       </c>
-      <c r="O37" s="87"/>
+      <c r="O37" s="81"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -6543,29 +6614,29 @@
       <c r="G38">
         <v>-2.681</v>
       </c>
-      <c r="I38" s="95" t="s">
+      <c r="I38" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="75">
+      <c r="K38" s="97">
         <f>C62</f>
         <v>568.45899999999995</v>
       </c>
-      <c r="L38" s="75">
+      <c r="L38" s="97">
         <f>D62</f>
         <v>190.68600000000001</v>
       </c>
-      <c r="M38" s="75">
+      <c r="M38" s="97">
         <f>E62</f>
         <v>101.758</v>
       </c>
-      <c r="N38" s="75">
+      <c r="N38" s="97">
         <f>F62</f>
         <v>77.375</v>
       </c>
-      <c r="O38" s="87"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
@@ -6586,39 +6657,66 @@
       <c r="G39">
         <v>4962.8819999999996</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="81" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="105">
         <v>568.4</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="103">
         <f>V7+V8</f>
         <v>134.25268310163378</v>
       </c>
-      <c r="M39" s="77">
+      <c r="M39" s="103">
         <f>W7+W8</f>
         <v>95.736000000000018</v>
       </c>
-      <c r="N39" s="77">
+      <c r="N39" s="103">
         <f>X7+X8</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="O39" s="87"/>
+      <c r="O39" s="81"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="O40" s="87"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="81"/>
     </row>
     <row r="41" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>11</v>
       </c>
+      <c r="I41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>12</v>
       </c>
+      <c r="I42" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108">
+        <v>2021</v>
+      </c>
+      <c r="L42" s="108">
+        <v>2022</v>
+      </c>
+      <c r="M42" s="108">
+        <v>2023</v>
+      </c>
+      <c r="N42" s="109">
+        <v>2024</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
@@ -6639,6 +6737,28 @@
       <c r="G43">
         <v>585.01300000000003</v>
       </c>
+      <c r="I43" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" s="119">
+        <f>K29-K28</f>
+        <v>355</v>
+      </c>
+      <c r="L43" s="119">
+        <f t="shared" ref="L43:N43" si="5">L29-L28</f>
+        <v>363.22880004246258</v>
+      </c>
+      <c r="M43" s="119">
+        <f t="shared" si="5"/>
+        <v>358.81960060473193</v>
+      </c>
+      <c r="N43" s="120">
+        <f t="shared" si="5"/>
+        <v>365.62907999678782</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
@@ -6659,6 +6779,26 @@
       <c r="G44">
         <v>194.47200000000001</v>
       </c>
+      <c r="I44" s="92"/>
+      <c r="J44" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="116">
+        <f>K43/K28</f>
+        <v>0.29657477025898077</v>
+      </c>
+      <c r="L44" s="116">
+        <f t="shared" ref="L44:N44" si="6">L43/L28</f>
+        <v>0.29759972736591261</v>
+      </c>
+      <c r="M44" s="116">
+        <f t="shared" si="6"/>
+        <v>0.29015453087351467</v>
+      </c>
+      <c r="N44" s="117">
+        <f t="shared" si="6"/>
+        <v>0.28975729209173529</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -6679,11 +6819,53 @@
       <c r="G45">
         <v>779.48500000000001</v>
       </c>
+      <c r="I45" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="122">
+        <f>K31-K30</f>
+        <v>-0.45299999999997453</v>
+      </c>
+      <c r="L45" s="122">
+        <f t="shared" ref="L45:N45" si="7">L31-L30</f>
+        <v>58.424999999999955</v>
+      </c>
+      <c r="M45" s="122">
+        <f t="shared" si="7"/>
+        <v>27.710000000000036</v>
+      </c>
+      <c r="N45" s="123">
+        <f t="shared" si="7"/>
+        <v>83.296000000000049</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>16</v>
       </c>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="113">
+        <f>K45/K30</f>
+        <v>-4.3001443823310063E-4</v>
+      </c>
+      <c r="L46" s="113">
+        <f t="shared" ref="L46:N46" si="8">L45/L30</f>
+        <v>5.8625793342196975E-2</v>
+      </c>
+      <c r="M46" s="113">
+        <f t="shared" si="8"/>
+        <v>3.3174107196303128E-2</v>
+      </c>
+      <c r="N46" s="114">
+        <f t="shared" si="8"/>
+        <v>0.10455074908623535</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
@@ -6704,6 +6886,28 @@
       <c r="G47">
         <v>359.56400000000002</v>
       </c>
+      <c r="I47" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="119">
+        <f>K33-K32</f>
+        <v>0.13700000000000045</v>
+      </c>
+      <c r="L47" s="119">
+        <f t="shared" ref="L47:N47" si="9">L33-L32</f>
+        <v>35.30070889492697</v>
+      </c>
+      <c r="M47" s="119">
+        <f t="shared" si="9"/>
+        <v>9.1346884272996931</v>
+      </c>
+      <c r="N47" s="120">
+        <f t="shared" si="9"/>
+        <v>5.5391795252226075</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
@@ -6724,8 +6928,28 @@
       <c r="G48">
         <v>150.82300000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I48" s="88"/>
+      <c r="J48" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="116">
+        <f>K47/K32</f>
+        <v>5.28828894902014E-4</v>
+      </c>
+      <c r="L48" s="116">
+        <f t="shared" ref="L48:N48" si="10">L47/L32</f>
+        <v>0.11775577640504162</v>
+      </c>
+      <c r="M48" s="116">
+        <f t="shared" si="10"/>
+        <v>2.6913829870802417E-2</v>
+      </c>
+      <c r="N48" s="117">
+        <f t="shared" si="10"/>
+        <v>1.6269358044164656E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>17</v>
       </c>
@@ -6744,8 +6968,30 @@
       <c r="G49">
         <v>510.387</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I49" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" s="122">
+        <f t="shared" ref="K44:N51" si="11">K35-K34</f>
+        <v>0.10300000000052023</v>
+      </c>
+      <c r="L49" s="122">
+        <f t="shared" si="11"/>
+        <v>-132.03263188779056</v>
+      </c>
+      <c r="M49" s="122">
+        <f t="shared" si="11"/>
+        <v>-126.37021163615373</v>
+      </c>
+      <c r="N49" s="123">
+        <f t="shared" si="11"/>
+        <v>-118.64649093624666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B50" s="73" t="s">
         <v>73</v>
       </c>
@@ -6764,13 +7010,55 @@
       <c r="G50">
         <v>1289.8720000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I50" s="88"/>
+      <c r="J50" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" s="113">
+        <f>K49/K34</f>
+        <v>2.8803961635505788E-5</v>
+      </c>
+      <c r="L50" s="113">
+        <f t="shared" ref="L50:N50" si="12">L49/L34</f>
+        <v>-3.3378382647680047E-2</v>
+      </c>
+      <c r="M50" s="113">
+        <f t="shared" si="12"/>
+        <v>-3.0775097086453776E-2</v>
+      </c>
+      <c r="N50" s="114">
+        <f t="shared" si="12"/>
+        <v>-2.7932187385965892E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I51" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="K51" s="119">
+        <f t="shared" si="11"/>
+        <v>6.7000000000007276E-2</v>
+      </c>
+      <c r="L51" s="119">
+        <f t="shared" si="11"/>
+        <v>-45.026749507297154</v>
+      </c>
+      <c r="M51" s="119">
+        <f t="shared" si="11"/>
+        <v>-111.41263846788343</v>
+      </c>
+      <c r="N51" s="120">
+        <f t="shared" si="11"/>
+        <v>-132.52758736317855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="74" t="s">
         <v>143</v>
       </c>
@@ -6778,8 +7066,28 @@
         <v>19</v>
       </c>
       <c r="C52" s="73"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I52" s="88"/>
+      <c r="J52" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" s="116">
+        <f>K51/K36</f>
+        <v>1.8581004722073173E-5</v>
+      </c>
+      <c r="L52" s="116">
+        <f t="shared" ref="L52:N52" si="13">L51/L36</f>
+        <v>-1.5895936237724475E-2</v>
+      </c>
+      <c r="M52" s="116">
+        <f t="shared" si="13"/>
+        <v>-3.9316742115623082E-2</v>
+      </c>
+      <c r="N52" s="117">
+        <f t="shared" si="13"/>
+        <v>-4.4521138725589375E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" s="73" t="s">
         <v>20</v>
       </c>
@@ -6798,8 +7106,30 @@
       <c r="G53">
         <v>3148.9079999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I53" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="122">
+        <f>K39-K38</f>
+        <v>-5.8999999999969077E-2</v>
+      </c>
+      <c r="L53" s="122">
+        <f t="shared" ref="L53:N53" si="14">L39-L38</f>
+        <v>-56.433316898366229</v>
+      </c>
+      <c r="M53" s="122">
+        <f t="shared" si="14"/>
+        <v>-6.0219999999999771</v>
+      </c>
+      <c r="N53" s="123">
+        <f t="shared" si="14"/>
+        <v>8.9250000000000114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>21</v>
       </c>
@@ -6818,8 +7148,28 @@
       <c r="G54">
         <v>35.154000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I54" s="88"/>
+      <c r="J54" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="116">
+        <f>K53/K38</f>
+        <v>-1.0378936739495564E-4</v>
+      </c>
+      <c r="L54" s="116">
+        <f t="shared" ref="L54:N54" si="15">L53/L38</f>
+        <v>-0.29594892597446182</v>
+      </c>
+      <c r="M54" s="116">
+        <f t="shared" si="15"/>
+        <v>-5.9179622241002941E-2</v>
+      </c>
+      <c r="N54" s="117">
+        <f t="shared" si="15"/>
+        <v>0.1153473344103394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>22</v>
       </c>
@@ -6839,12 +7189,12 @@
         <v>3184.0619999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -6867,7 +7217,7 @@
         <v>800.61400000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -6887,7 +7237,7 @@
         <v>54.796999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -6907,7 +7257,7 @@
         <v>855.41099999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>74</v>
       </c>
@@ -6927,7 +7277,7 @@
         <v>4039.473</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>24</v>
       </c>
@@ -6947,7 +7297,7 @@
         <v>661.62800000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -6970,7 +7320,7 @@
         <v>75.902000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>26</v>
       </c>
@@ -6991,7 +7341,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I30:I31"/>
@@ -7034,20 +7390,20 @@
     <row r="3" spans="1:13" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -7121,19 +7477,19 @@
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7845,19 +8201,19 @@
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
       <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8651,19 +9007,19 @@
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
       <c r="M51" s="57"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9256,20 +9612,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">45RU2JKQZF2C-997389622-57</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">
-      <Url>https://cbogov.sharepoint.com/sites/cbolife/resources/editing-publishing/_layouts/15/DocIdRedir.aspx?ID=45RU2JKQZF2C-997389622-57</Url>
-      <Description>45RU2JKQZF2C-997389622-57</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A22A9AF27DA0D499F9F246035DBC1F4" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62077801544656a2581e98ce30215b0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a" xmlns:ns3="65fc82e2-9a67-49bf-b6d6-d30791e23caf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e292b7310df7574ca2692f52e7d048b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9476,77 +9877,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">45RU2JKQZF2C-997389622-57</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a">
+      <Url>https://cbogov.sharepoint.com/sites/cbolife/resources/editing-publishing/_layouts/15/DocIdRedir.aspx?ID=45RU2JKQZF2C-997389622-57</Url>
+      <Description>45RU2JKQZF2C-997389622-57</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A04B03F-C5FA-4EBD-8DCF-4A46F3164370}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E32566-5825-46D5-9A9F-B3C2A2EB7BEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C771AA62-7091-4265-ACA0-7A1ACC5064B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9566,19 +9928,13 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A04B03F-C5FA-4EBD-8DCF-4A46F3164370}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E32566-5825-46D5-9A9F-B3C2A2EB7BEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CBO NIPA comparison.xlsx
+++ b/CBO NIPA comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73FEF3-33CA-4EEE-8A6B-966B0DEB717B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7BB03-0060-48F7-A906-9E980D12F78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -1955,6 +1955,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1970,6 +2020,18 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,74 +2041,12 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="507" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="508">
     <cellStyle name="20% - Accent1 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3203,20 +3203,20 @@
     <row r="3" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -3301,19 +3301,19 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3745,19 +3745,19 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4562,19 +4562,19 @@
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71"/>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
       <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4667,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9589D34-1559-4E02-B9F6-794E0F2B6B2D}">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4756,61 +4756,61 @@
         <v>384.12299999999988</v>
       </c>
       <c r="F3">
-        <v>379.1028067950088</v>
+        <v>373.02054063783805</v>
       </c>
       <c r="G3">
-        <v>382.98756493333315</v>
+        <v>370.5198109315192</v>
       </c>
       <c r="H3">
-        <v>404.11069713866652</v>
+        <v>384.94151421232431</v>
       </c>
       <c r="I3">
-        <v>422.17505958421322</v>
+        <v>395.97527266666646</v>
       </c>
       <c r="J3">
-        <v>442.52433352758169</v>
+        <v>408.95099832987557</v>
       </c>
       <c r="K3">
-        <v>462.59180486868502</v>
+        <v>421.28765117678</v>
       </c>
       <c r="L3">
-        <v>454.67521469543243</v>
+        <v>405.26806734081725</v>
       </c>
       <c r="M3">
-        <v>461.67012952324978</v>
+        <v>403.77230613333313</v>
       </c>
       <c r="N3">
-        <v>474.30455646417977</v>
+        <v>407.51224106307063</v>
       </c>
       <c r="O3">
-        <v>462.38077136274694</v>
+        <v>386.27336285585125</v>
       </c>
       <c r="P3">
-        <v>453.93971473725685</v>
+        <v>368.07914927444995</v>
       </c>
       <c r="Q3">
-        <v>468.27371996674719</v>
+        <v>372.20376613866648</v>
       </c>
       <c r="R3">
-        <v>482.30045126541711</v>
+        <v>375.54597704559342</v>
       </c>
       <c r="S3">
-        <v>488.80668758803381</v>
+        <v>370.87289789008526</v>
       </c>
       <c r="U3" t="s">
         <v>94</v>
       </c>
       <c r="V3">
         <f>AVERAGE(F3:I3)</f>
-        <v>397.09403211280539</v>
+        <v>381.11428461208698</v>
       </c>
       <c r="W3">
         <f>AVERAGE(J3:M3)</f>
-        <v>455.36537065373727</v>
+        <v>409.81975574520146</v>
       </c>
       <c r="X3">
         <f>AVERAGE(N3:Q3)</f>
-        <v>464.72469063273269</v>
+        <v>383.51712983300956</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
@@ -4892,61 +4892,61 @@
         <v>1562.1</v>
       </c>
       <c r="F5">
-        <v>1573.9267891323836</v>
+        <v>1577.4377891323836</v>
       </c>
       <c r="G5">
-        <v>1585.9354345503814</v>
+        <v>1589.4464345503814</v>
       </c>
       <c r="H5">
-        <v>1587.9101975616902</v>
+        <v>1591.4211975616902</v>
       </c>
       <c r="I5">
-        <v>1587.2547789253952</v>
+        <v>1590.7657789253951</v>
       </c>
       <c r="J5">
-        <v>1587.4214144343857</v>
+        <v>1595.9214144343857</v>
       </c>
       <c r="K5">
-        <v>1591.6665815728984</v>
+        <v>1600.1665815728984</v>
       </c>
       <c r="L5">
-        <v>1597.5981128204228</v>
+        <v>1606.0981128204228</v>
       </c>
       <c r="M5">
-        <v>1605.1922935912212</v>
+        <v>1613.6922935912212</v>
       </c>
       <c r="N5">
-        <v>1614.118674329608</v>
+        <v>1626.4186743296079</v>
       </c>
       <c r="O5">
-        <v>1622.9240123392974</v>
+        <v>1635.2240123392974</v>
       </c>
       <c r="P5">
-        <v>1631.7773852169912</v>
+        <v>1644.0773852169912</v>
       </c>
       <c r="Q5">
-        <v>1641.0802481012545</v>
+        <v>1653.3802481012544</v>
       </c>
       <c r="R5">
-        <v>1650.0326668517271</v>
+        <v>1665.332666851727</v>
       </c>
       <c r="S5">
-        <v>1660.2500755702192</v>
+        <v>1675.5500755702192</v>
       </c>
       <c r="U5" t="s">
         <v>98</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>1583.7568000424626</v>
+        <v>1587.2678000424626</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>1595.469600604732</v>
+        <v>1603.969600604732</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>1627.4750799967878</v>
+        <v>1639.7750799967878</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
@@ -5028,16 +5028,16 @@
         <v>286.71096</v>
       </c>
       <c r="F7">
-        <v>71.095732406535092</v>
+        <v>116.09573240653509</v>
       </c>
       <c r="G7">
-        <v>11.64100000000002</v>
+        <v>56.64100000000002</v>
       </c>
       <c r="H7">
-        <v>6.6410000000000196</v>
+        <v>51.64100000000002</v>
       </c>
       <c r="I7">
-        <v>6.6410000000000196</v>
+        <v>51.64100000000002</v>
       </c>
       <c r="J7">
         <v>85.260000000000019</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>24.004683101633788</v>
+        <v>69.004683101633788</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
@@ -5300,61 +5300,61 @@
         <v>530.82100000000003</v>
       </c>
       <c r="F11">
-        <v>538.14001996493334</v>
+        <v>538.19018291204748</v>
       </c>
       <c r="G11">
-        <v>570.27040489328328</v>
+        <v>551.55270919710392</v>
       </c>
       <c r="H11">
-        <v>578.13335771320669</v>
+        <v>559.20970242025965</v>
       </c>
       <c r="I11">
-        <v>532.12913303510197</v>
+        <v>532.32580649257125</v>
       </c>
       <c r="J11">
-        <v>531.19254142829129</v>
+        <v>523.02182961904396</v>
       </c>
       <c r="K11">
-        <v>532.8055920209647</v>
+        <v>516.10149912857014</v>
       </c>
       <c r="L11">
-        <v>534.42354089818025</v>
+        <v>509.27273455635293</v>
       </c>
       <c r="M11">
-        <v>536.0464029343575</v>
+        <v>502.53432435369587</v>
       </c>
       <c r="N11">
-        <v>558.00706656737646</v>
+        <v>509.45176934458243</v>
       </c>
       <c r="O11">
-        <v>580.86741116936116</v>
+        <v>516.46443379189816</v>
       </c>
       <c r="P11">
-        <v>604.66429472691186</v>
+        <v>523.57362840283258</v>
       </c>
       <c r="Q11">
-        <v>629.43608521875183</v>
+        <v>530.78068192661613</v>
       </c>
       <c r="R11">
-        <v>655.22272247684373</v>
+        <v>538.08694140287128</v>
       </c>
       <c r="S11">
-        <v>682.06578258182287</v>
+        <v>545.49377241338152</v>
       </c>
       <c r="U11" t="s">
         <v>110</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>554.66822890163132</v>
+        <v>545.31960025549552</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>533.61701932044843</v>
+        <v>512.73259691441569</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>593.24371442060033</v>
+        <v>520.06762836648227</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.35">
@@ -5368,61 +5368,61 @@
         <v>740</v>
       </c>
       <c r="F12">
-        <v>750.20320366762178</v>
+        <v>750.27313417313019</v>
       </c>
       <c r="G12">
-        <v>760.54709026103137</v>
+        <v>760.68888629996195</v>
       </c>
       <c r="H12">
-        <v>771.03359953231575</v>
+        <v>771.24923629045986</v>
       </c>
       <c r="I12">
-        <v>781.66469797908303</v>
+        <v>781.95619154091401</v>
       </c>
       <c r="J12">
-        <v>784.03834709124271</v>
+        <v>771.60978730291697</v>
       </c>
       <c r="K12">
-        <v>786.4192041662568</v>
+        <v>761.40028086279415</v>
       </c>
       <c r="L12">
-        <v>788.80729109225035</v>
+        <v>751.32586086593074</v>
       </c>
       <c r="M12">
-        <v>791.20262982381519</v>
+        <v>741.3847399245368</v>
       </c>
       <c r="N12">
-        <v>823.6164931087975</v>
+        <v>751.58998941094046</v>
       </c>
       <c r="O12">
-        <v>857.35828238069348</v>
+        <v>761.93571537530659</v>
       </c>
       <c r="P12">
-        <v>892.48239989977117</v>
+        <v>772.42385149313111</v>
       </c>
       <c r="Q12">
-        <v>929.04547666942995</v>
+        <v>783.05635805718384</v>
       </c>
       <c r="R12">
-        <v>967.10646374299392</v>
+        <v>793.83522234389898</v>
       </c>
       <c r="S12">
-        <v>1006.726727271148</v>
+        <v>804.76245898480795</v>
       </c>
       <c r="U12" t="s">
         <v>112</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>765.86214786001301</v>
+        <v>766.04186207611656</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>787.61686804339126</v>
+        <v>756.43016723904475</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>875.62566301467314</v>
+        <v>767.2514785841405</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
@@ -5776,61 +5776,61 @@
         <v>1917.9298399999998</v>
       </c>
       <c r="F18">
-        <v>1912.7993733112776</v>
+        <v>1955.2993733112776</v>
       </c>
       <c r="G18">
-        <v>1773.2142400000012</v>
+        <v>1815.7142400000012</v>
       </c>
       <c r="H18">
-        <v>1775.3142400000013</v>
+        <v>1817.8142400000013</v>
       </c>
       <c r="I18">
-        <v>1735.4142400000014</v>
+        <v>1777.9142400000014</v>
       </c>
       <c r="J18">
-        <v>1737.5142400000016</v>
+        <v>1842.5142400000016</v>
       </c>
       <c r="K18">
-        <v>1791.2364000000016</v>
+        <v>1896.2364000000016</v>
       </c>
       <c r="L18">
-        <v>1798.3364000000017</v>
+        <v>1903.3364000000017</v>
       </c>
       <c r="M18">
-        <v>1805.4364000000019</v>
+        <v>1910.4364000000019</v>
       </c>
       <c r="N18">
-        <v>1812.536400000002</v>
+        <v>1941.236400000002</v>
       </c>
       <c r="O18">
-        <v>1843.5874800000022</v>
+        <v>1972.2874800000022</v>
       </c>
       <c r="P18">
-        <v>1850.6874800000023</v>
+        <v>1979.3874800000024</v>
       </c>
       <c r="Q18">
-        <v>1857.7874800000025</v>
+        <v>1986.4874800000025</v>
       </c>
       <c r="R18">
-        <v>1864.8874800000026</v>
+        <v>1993.0874800000026</v>
       </c>
       <c r="S18">
-        <v>1896.5785600000027</v>
+        <v>2024.7785600000027</v>
       </c>
       <c r="U18" t="s">
         <v>124</v>
       </c>
       <c r="V18">
         <f t="shared" si="0"/>
-        <v>1799.1855233278202</v>
+        <v>1841.6855233278202</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>1783.1308600000016</v>
+        <v>1888.1308600000016</v>
       </c>
       <c r="X18">
         <f t="shared" si="2"/>
-        <v>1841.1497100000024</v>
+        <v>1969.8497100000022</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.35">
@@ -5912,61 +5912,61 @@
         <v>3739.4999999999995</v>
       </c>
       <c r="F20">
-        <v>3790.3567636578086</v>
+        <v>3823.82252855863</v>
       </c>
       <c r="G20">
-        <v>3785.9222713714485</v>
+        <v>3910.556758267564</v>
       </c>
       <c r="H20">
-        <v>3836.0261744822378</v>
+        <v>3999.7792623822525</v>
       </c>
       <c r="I20">
-        <v>3882.096262937343</v>
+        <v>4091.5691349349081</v>
       </c>
       <c r="J20">
-        <v>3925.0470587742493</v>
+        <v>4097.0264369090428</v>
       </c>
       <c r="K20">
-        <v>3959.4970733399186</v>
+        <v>4102.7754026569237</v>
       </c>
       <c r="L20">
-        <v>3998.2650613759206</v>
+        <v>4108.8180240614884</v>
       </c>
       <c r="M20">
-        <v>4036.7059599652966</v>
+        <v>4115.1563236452866</v>
       </c>
       <c r="N20">
-        <v>4074.3305460849683</v>
+        <v>4167.1460361514019</v>
       </c>
       <c r="O20">
-        <v>4110.6880372649321</v>
+        <v>4219.9044796830367</v>
       </c>
       <c r="P20">
-        <v>4146.6966412214333</v>
+        <v>4273.4440710848967</v>
       </c>
       <c r="Q20">
-        <v>4184.3468116836821</v>
+        <v>4327.777436302531</v>
       </c>
       <c r="R20">
-        <v>4222.0255613752315</v>
+        <v>4349.9506772075001</v>
       </c>
       <c r="S20">
-        <v>4260.7927835440778</v>
+        <v>4372.2767723476391</v>
       </c>
       <c r="U20" t="s">
         <v>128</v>
       </c>
       <c r="V20">
         <f t="shared" si="0"/>
-        <v>3823.6003681122093</v>
+        <v>3956.4319210358381</v>
       </c>
       <c r="W20">
         <f t="shared" si="1"/>
-        <v>3979.8787883638461</v>
+        <v>4105.9440468181856</v>
       </c>
       <c r="X20">
         <f t="shared" si="2"/>
-        <v>4129.0155090637536</v>
+        <v>4247.0680058054668</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
@@ -6048,61 +6048,61 @@
         <v>290.01506024096392</v>
       </c>
       <c r="F22">
-        <v>293.3295180722892</v>
+        <v>293.86498655095386</v>
       </c>
       <c r="G22">
-        <v>344.48724035608313</v>
+        <v>297.76602031922556</v>
       </c>
       <c r="H22">
-        <v>350.43471810089022</v>
+        <v>301.71883999312627</v>
       </c>
       <c r="I22">
-        <v>352.06735905044513</v>
+        <v>305.72413302633652</v>
       </c>
       <c r="J22">
-        <v>351.83412462908012</v>
+        <v>318.58485068038271</v>
       </c>
       <c r="K22">
-        <v>350.08486646884273</v>
+        <v>331.986572595165</v>
       </c>
       <c r="L22">
-        <v>347.05281899109792</v>
+        <v>345.95205687936812</v>
       </c>
       <c r="M22">
-        <v>345.18694362017806</v>
+        <v>360.50501899367657</v>
       </c>
       <c r="N22">
-        <v>345.18694362017806</v>
+        <v>352.31033385925053</v>
       </c>
       <c r="O22">
-        <v>344.67382789317509</v>
+        <v>344.30192314796523</v>
       </c>
       <c r="P22">
-        <v>346.36477744807127</v>
+        <v>336.47555263237354</v>
       </c>
       <c r="Q22">
-        <v>347.79916913946596</v>
+        <v>328.82708433378747</v>
       </c>
       <c r="R22">
-        <v>349.7700000000001</v>
+        <v>329.67683813074603</v>
       </c>
       <c r="S22">
-        <v>350.71459940652824</v>
+        <v>330.52878785848361</v>
       </c>
       <c r="U22" t="s">
         <v>132</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>335.07970889492697</v>
+        <v>299.76849497241051</v>
       </c>
       <c r="W22">
         <f t="shared" si="1"/>
-        <v>348.53968842729967</v>
+        <v>339.25712478714809</v>
       </c>
       <c r="X22">
         <f t="shared" si="2"/>
-        <v>346.00617952522259</v>
+        <v>340.47872349334421</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
@@ -6213,29 +6213,29 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="121" t="s">
         <v>136</v>
       </c>
       <c r="J28" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="97">
+      <c r="K28" s="85">
         <f t="shared" ref="K28:N28" si="3">C50</f>
         <v>1197</v>
       </c>
-      <c r="L28" s="97">
+      <c r="L28" s="85">
         <f t="shared" si="3"/>
         <v>1220.528</v>
       </c>
-      <c r="M28" s="97">
+      <c r="M28" s="85">
         <f t="shared" si="3"/>
         <v>1236.6500000000001</v>
       </c>
-      <c r="N28" s="97">
+      <c r="N28" s="85">
         <f t="shared" si="3"/>
         <v>1261.846</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="84" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6258,24 +6258,24 @@
       <c r="G29">
         <v>2347.9670000000001</v>
       </c>
-      <c r="I29" s="92"/>
+      <c r="I29" s="116"/>
       <c r="J29" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="98">
+      <c r="K29" s="86">
         <v>1552</v>
       </c>
-      <c r="L29" s="99">
+      <c r="L29" s="87">
         <f>V5</f>
-        <v>1583.7568000424626</v>
-      </c>
-      <c r="M29" s="99">
+        <v>1587.2678000424626</v>
+      </c>
+      <c r="M29" s="87">
         <f>W5</f>
-        <v>1595.469600604732</v>
-      </c>
-      <c r="N29" s="99">
+        <v>1603.969600604732</v>
+      </c>
+      <c r="N29" s="87">
         <f>X5</f>
-        <v>1627.4750799967878</v>
+        <v>1639.7750799967878</v>
       </c>
       <c r="O29" s="81"/>
     </row>
@@ -6298,25 +6298,25 @@
       <c r="G30">
         <v>343.9</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="119" t="s">
         <v>145</v>
       </c>
       <c r="J30" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="97">
+      <c r="K30" s="85">
         <f>C57</f>
         <v>1053.453</v>
       </c>
-      <c r="L30" s="97">
+      <c r="L30" s="85">
         <f>D57</f>
         <v>996.57500000000005</v>
       </c>
-      <c r="M30" s="97">
+      <c r="M30" s="85">
         <f t="shared" ref="M30:N30" si="4">E57</f>
         <v>835.29</v>
       </c>
-      <c r="N30" s="100">
+      <c r="N30" s="88">
         <f t="shared" si="4"/>
         <v>796.70399999999995</v>
       </c>
@@ -6328,21 +6328,21 @@
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
-      <c r="I31" s="90"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="98">
+      <c r="K31" s="86">
         <v>1053</v>
       </c>
-      <c r="L31" s="99">
-        <v>1055</v>
-      </c>
-      <c r="M31" s="99">
-        <v>863</v>
-      </c>
-      <c r="N31" s="101">
-        <v>880</v>
+      <c r="L31" s="87">
+        <v>996</v>
+      </c>
+      <c r="M31" s="87">
+        <v>835</v>
+      </c>
+      <c r="N31" s="89">
+        <v>797</v>
       </c>
       <c r="O31" s="77"/>
     </row>
@@ -6365,25 +6365,25 @@
       <c r="G32">
         <v>187.04400000000001</v>
       </c>
-      <c r="I32" s="87" t="s">
+      <c r="I32" s="113" t="s">
         <v>139</v>
       </c>
       <c r="J32" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="97">
+      <c r="K32" s="85">
         <f>C30</f>
         <v>259.06299999999999</v>
       </c>
-      <c r="L32" s="97">
+      <c r="L32" s="85">
         <f>D30</f>
         <v>299.779</v>
       </c>
-      <c r="M32" s="97">
+      <c r="M32" s="85">
         <f>E30</f>
         <v>339.40499999999997</v>
       </c>
-      <c r="N32" s="100">
+      <c r="N32" s="88">
         <f>F30</f>
         <v>340.46699999999998</v>
       </c>
@@ -6408,24 +6408,24 @@
       <c r="G33">
         <v>35.039000000000001</v>
       </c>
-      <c r="I33" s="88"/>
+      <c r="I33" s="114"/>
       <c r="J33" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K33" s="90">
         <v>259.2</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="91">
         <f>V22</f>
-        <v>335.07970889492697</v>
-      </c>
-      <c r="M33" s="103">
+        <v>299.76849497241051</v>
+      </c>
+      <c r="M33" s="91">
         <f>W22</f>
-        <v>348.53968842729967</v>
-      </c>
-      <c r="N33" s="104">
+        <v>339.25712478714809</v>
+      </c>
+      <c r="N33" s="92">
         <f>X22</f>
-        <v>346.00617952522259</v>
+        <v>340.47872349334421</v>
       </c>
       <c r="O33" s="77"/>
     </row>
@@ -6448,25 +6448,25 @@
       <c r="G34">
         <v>2913.9490000000001</v>
       </c>
-      <c r="I34" s="87" t="s">
+      <c r="I34" s="113" t="s">
         <v>140</v>
       </c>
       <c r="J34" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K34" s="97">
+      <c r="K34" s="85">
         <f>C35+C29+C32</f>
         <v>3575.8969999999995</v>
       </c>
-      <c r="L34" s="97">
+      <c r="L34" s="85">
         <f>D35+D29+D32</f>
         <v>3955.6329999999998</v>
       </c>
-      <c r="M34" s="97">
+      <c r="M34" s="85">
         <f>E35+E29+E32</f>
         <v>4106.2489999999998</v>
       </c>
-      <c r="N34" s="97">
+      <c r="N34" s="85">
         <f>F35+F29+F32</f>
         <v>4247.6620000000003</v>
       </c>
@@ -6491,24 +6491,24 @@
       <c r="G35">
         <v>1800.52</v>
       </c>
-      <c r="I35" s="88"/>
+      <c r="I35" s="114"/>
       <c r="J35" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="103">
+      <c r="K35" s="91">
         <v>3576</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="91">
         <f>V20</f>
-        <v>3823.6003681122093</v>
-      </c>
-      <c r="M35" s="103">
+        <v>3956.4319210358381</v>
+      </c>
+      <c r="M35" s="91">
         <f>W20</f>
-        <v>3979.8787883638461</v>
-      </c>
-      <c r="N35" s="103">
+        <v>4105.9440468181856</v>
+      </c>
+      <c r="N35" s="91">
         <f>X20</f>
-        <v>4129.0155090637536</v>
+        <v>4247.0680058054668</v>
       </c>
       <c r="O35" s="81"/>
     </row>
@@ -6531,25 +6531,25 @@
       <c r="G36">
         <v>165.602</v>
       </c>
-      <c r="I36" s="87" t="s">
+      <c r="I36" s="113" t="s">
         <v>142</v>
       </c>
       <c r="J36" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="97">
+      <c r="K36" s="85">
         <f>C53</f>
         <v>3605.8330000000001</v>
       </c>
-      <c r="L36" s="97">
+      <c r="L36" s="85">
         <f>D53</f>
         <v>2832.5949999999998</v>
       </c>
-      <c r="M36" s="97">
+      <c r="M36" s="85">
         <f>E53</f>
         <v>2833.72</v>
       </c>
-      <c r="N36" s="97">
+      <c r="N36" s="85">
         <f>F53</f>
         <v>2976.7339999999999</v>
       </c>
@@ -6574,24 +6574,24 @@
       <c r="G37">
         <v>85.49</v>
       </c>
-      <c r="I37" s="88"/>
+      <c r="I37" s="114"/>
       <c r="J37" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="91">
         <v>3605.9</v>
       </c>
-      <c r="L37" s="103">
+      <c r="L37" s="91">
         <f>SUM(V9:V18)-V12-V11</f>
-        <v>2787.5682504927026</v>
-      </c>
-      <c r="M37" s="103">
+        <v>2830.0682504927031</v>
+      </c>
+      <c r="M37" s="91">
         <f>SUM(W9:W18)-W12-W11</f>
-        <v>2722.3073615321164</v>
-      </c>
-      <c r="N37" s="103">
+        <v>2827.3073615321164</v>
+      </c>
+      <c r="N37" s="91">
         <f>SUM(X9:X18)-X12-X11</f>
-        <v>2844.2064126368214</v>
+        <v>2972.9064126368203</v>
       </c>
       <c r="O37" s="81"/>
     </row>
@@ -6614,25 +6614,25 @@
       <c r="G38">
         <v>-2.681</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="I38" s="113" t="s">
         <v>25</v>
       </c>
       <c r="J38" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="97">
+      <c r="K38" s="85">
         <f>C62</f>
         <v>568.45899999999995</v>
       </c>
-      <c r="L38" s="97">
+      <c r="L38" s="85">
         <f>D62</f>
         <v>190.68600000000001</v>
       </c>
-      <c r="M38" s="97">
+      <c r="M38" s="85">
         <f>E62</f>
         <v>101.758</v>
       </c>
-      <c r="N38" s="97">
+      <c r="N38" s="85">
         <f>F62</f>
         <v>77.375</v>
       </c>
@@ -6657,32 +6657,32 @@
       <c r="G39">
         <v>4962.8819999999996</v>
       </c>
-      <c r="I39" s="88"/>
+      <c r="I39" s="114"/>
       <c r="J39" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="105">
+      <c r="K39" s="93">
         <v>568.4</v>
       </c>
-      <c r="L39" s="103">
+      <c r="L39" s="91">
         <f>V7+V8</f>
-        <v>134.25268310163378</v>
-      </c>
-      <c r="M39" s="103">
+        <v>179.25268310163378</v>
+      </c>
+      <c r="M39" s="91">
         <f>W7+W8</f>
         <v>95.736000000000018</v>
       </c>
-      <c r="N39" s="103">
+      <c r="N39" s="91">
         <f>X7+X8</f>
         <v>86.300000000000011</v>
       </c>
       <c r="O39" s="81"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
       <c r="O40" s="81"/>
     </row>
     <row r="41" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6692,10 +6692,10 @@
       <c r="I41" t="s">
         <v>148</v>
       </c>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
@@ -6704,17 +6704,17 @@
       <c r="I42" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108">
+      <c r="J42" s="95"/>
+      <c r="K42" s="96">
         <v>2021</v>
       </c>
-      <c r="L42" s="108">
+      <c r="L42" s="96">
         <v>2022</v>
       </c>
-      <c r="M42" s="108">
+      <c r="M42" s="96">
         <v>2023</v>
       </c>
-      <c r="N42" s="109">
+      <c r="N42" s="97">
         <v>2024</v>
       </c>
     </row>
@@ -6737,27 +6737,27 @@
       <c r="G43">
         <v>585.01300000000003</v>
       </c>
-      <c r="I43" s="96" t="s">
+      <c r="I43" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="118" t="s">
+      <c r="J43" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="K43" s="119">
+      <c r="K43" s="105">
         <f>K29-K28</f>
         <v>355</v>
       </c>
-      <c r="L43" s="119">
+      <c r="L43" s="105">
         <f t="shared" ref="L43:N43" si="5">L29-L28</f>
-        <v>363.22880004246258</v>
-      </c>
-      <c r="M43" s="119">
+        <v>366.73980004246255</v>
+      </c>
+      <c r="M43" s="105">
         <f t="shared" si="5"/>
-        <v>358.81960060473193</v>
-      </c>
-      <c r="N43" s="120">
+        <v>367.31960060473193</v>
+      </c>
+      <c r="N43" s="106">
         <f t="shared" si="5"/>
-        <v>365.62907999678782</v>
+        <v>377.92907999678778</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -6779,25 +6779,25 @@
       <c r="G44">
         <v>194.47200000000001</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="115" t="s">
+      <c r="I44" s="116"/>
+      <c r="J44" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="K44" s="116">
+      <c r="K44" s="102">
         <f>K43/K28</f>
         <v>0.29657477025898077</v>
       </c>
-      <c r="L44" s="116">
+      <c r="L44" s="102">
         <f t="shared" ref="L44:N44" si="6">L43/L28</f>
-        <v>0.29759972736591261</v>
-      </c>
-      <c r="M44" s="116">
+        <v>0.30047635125327937</v>
+      </c>
+      <c r="M44" s="102">
         <f t="shared" si="6"/>
-        <v>0.29015453087351467</v>
-      </c>
-      <c r="N44" s="117">
+        <v>0.29702793887092704</v>
+      </c>
+      <c r="N44" s="103">
         <f t="shared" si="6"/>
-        <v>0.28975729209173529</v>
+        <v>0.29950491581126998</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
@@ -6819,52 +6819,52 @@
       <c r="G45">
         <v>779.48500000000001</v>
       </c>
-      <c r="I45" s="110" t="s">
+      <c r="I45" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="J45" s="121" t="s">
+      <c r="J45" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="K45" s="122">
+      <c r="K45" s="108">
         <f>K31-K30</f>
         <v>-0.45299999999997453</v>
       </c>
-      <c r="L45" s="122">
+      <c r="L45" s="108">
         <f t="shared" ref="L45:N45" si="7">L31-L30</f>
-        <v>58.424999999999955</v>
-      </c>
-      <c r="M45" s="122">
+        <v>-0.57500000000004547</v>
+      </c>
+      <c r="M45" s="108">
         <f t="shared" si="7"/>
-        <v>27.710000000000036</v>
-      </c>
-      <c r="N45" s="123">
+        <v>-0.28999999999996362</v>
+      </c>
+      <c r="N45" s="109">
         <f t="shared" si="7"/>
-        <v>83.296000000000049</v>
+        <v>0.29600000000004911</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112" t="s">
+      <c r="I46" s="118"/>
+      <c r="J46" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="K46" s="113">
+      <c r="K46" s="99">
         <f>K45/K30</f>
         <v>-4.3001443823310063E-4</v>
       </c>
-      <c r="L46" s="113">
+      <c r="L46" s="99">
         <f t="shared" ref="L46:N46" si="8">L45/L30</f>
-        <v>5.8625793342196975E-2</v>
-      </c>
-      <c r="M46" s="113">
+        <v>-5.7697614329081648E-4</v>
+      </c>
+      <c r="M46" s="99">
         <f t="shared" si="8"/>
-        <v>3.3174107196303128E-2</v>
-      </c>
-      <c r="N46" s="114">
+        <v>-3.4718481006592157E-4</v>
+      </c>
+      <c r="N46" s="100">
         <f t="shared" si="8"/>
-        <v>0.10455074908623535</v>
+        <v>3.7153070651088627E-4</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
@@ -6886,27 +6886,27 @@
       <c r="G47">
         <v>359.56400000000002</v>
       </c>
-      <c r="I47" s="87" t="s">
+      <c r="I47" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="J47" s="118" t="s">
+      <c r="J47" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="K47" s="119">
+      <c r="K47" s="105">
         <f>K33-K32</f>
         <v>0.13700000000000045</v>
       </c>
-      <c r="L47" s="119">
+      <c r="L47" s="105">
         <f t="shared" ref="L47:N47" si="9">L33-L32</f>
-        <v>35.30070889492697</v>
-      </c>
-      <c r="M47" s="119">
+        <v>-1.0505027589488236E-2</v>
+      </c>
+      <c r="M47" s="105">
         <f t="shared" si="9"/>
-        <v>9.1346884272996931</v>
-      </c>
-      <c r="N47" s="120">
+        <v>-0.14787521285188632</v>
+      </c>
+      <c r="N47" s="106">
         <f t="shared" si="9"/>
-        <v>5.5391795252226075</v>
+        <v>1.1723493344220515E-2</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
@@ -6928,25 +6928,25 @@
       <c r="G48">
         <v>150.82300000000001</v>
       </c>
-      <c r="I48" s="88"/>
-      <c r="J48" s="115" t="s">
+      <c r="I48" s="114"/>
+      <c r="J48" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="116">
+      <c r="K48" s="102">
         <f>K47/K32</f>
         <v>5.28828894902014E-4</v>
       </c>
-      <c r="L48" s="116">
+      <c r="L48" s="102">
         <f t="shared" ref="L48:N48" si="10">L47/L32</f>
-        <v>0.11775577640504162</v>
-      </c>
-      <c r="M48" s="116">
+        <v>-3.504257332731191E-5</v>
+      </c>
+      <c r="M48" s="102">
         <f t="shared" si="10"/>
-        <v>2.6913829870802417E-2</v>
-      </c>
-      <c r="N48" s="117">
+        <v>-4.3568955334154279E-4</v>
+      </c>
+      <c r="N48" s="103">
         <f t="shared" si="10"/>
-        <v>1.6269358044164656E-2</v>
+        <v>3.4433567259735936E-5</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -6968,27 +6968,27 @@
       <c r="G49">
         <v>510.387</v>
       </c>
-      <c r="I49" s="87" t="s">
+      <c r="I49" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="J49" s="121" t="s">
+      <c r="J49" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="K49" s="122">
-        <f t="shared" ref="K44:N51" si="11">K35-K34</f>
+      <c r="K49" s="108">
+        <f t="shared" ref="K49:N51" si="11">K35-K34</f>
         <v>0.10300000000052023</v>
       </c>
-      <c r="L49" s="122">
+      <c r="L49" s="108">
         <f t="shared" si="11"/>
-        <v>-132.03263188779056</v>
-      </c>
-      <c r="M49" s="122">
+        <v>0.79892103583824792</v>
+      </c>
+      <c r="M49" s="108">
         <f t="shared" si="11"/>
-        <v>-126.37021163615373</v>
-      </c>
-      <c r="N49" s="123">
+        <v>-0.30495318181419862</v>
+      </c>
+      <c r="N49" s="109">
         <f t="shared" si="11"/>
-        <v>-118.64649093624666</v>
+        <v>-0.59399419453347946</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -7010,52 +7010,52 @@
       <c r="G50">
         <v>1289.8720000000001</v>
       </c>
-      <c r="I50" s="88"/>
-      <c r="J50" s="112" t="s">
+      <c r="I50" s="114"/>
+      <c r="J50" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="K50" s="113">
+      <c r="K50" s="99">
         <f>K49/K34</f>
         <v>2.8803961635505788E-5</v>
       </c>
-      <c r="L50" s="113">
+      <c r="L50" s="99">
         <f t="shared" ref="L50:N50" si="12">L49/L34</f>
-        <v>-3.3378382647680047E-2</v>
-      </c>
-      <c r="M50" s="113">
+        <v>2.0197046486320849E-4</v>
+      </c>
+      <c r="M50" s="99">
         <f t="shared" si="12"/>
-        <v>-3.0775097086453776E-2</v>
-      </c>
-      <c r="N50" s="114">
+        <v>-7.4265633139685057E-5</v>
+      </c>
+      <c r="N50" s="100">
         <f t="shared" si="12"/>
-        <v>-2.7932187385965892E-2</v>
+        <v>-1.3984026848969607E-4</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="87" t="s">
+      <c r="I51" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="J51" s="118" t="s">
+      <c r="J51" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="K51" s="119">
+      <c r="K51" s="105">
         <f t="shared" si="11"/>
         <v>6.7000000000007276E-2</v>
       </c>
-      <c r="L51" s="119">
+      <c r="L51" s="105">
         <f t="shared" si="11"/>
-        <v>-45.026749507297154</v>
-      </c>
-      <c r="M51" s="119">
+        <v>-2.5267495072966994</v>
+      </c>
+      <c r="M51" s="105">
         <f t="shared" si="11"/>
-        <v>-111.41263846788343</v>
-      </c>
-      <c r="N51" s="120">
+        <v>-6.4126384678834256</v>
+      </c>
+      <c r="N51" s="106">
         <f t="shared" si="11"/>
-        <v>-132.52758736317855</v>
+        <v>-3.8275873631796458</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -7066,25 +7066,25 @@
         <v>19</v>
       </c>
       <c r="C52" s="73"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="115" t="s">
+      <c r="I52" s="114"/>
+      <c r="J52" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="K52" s="116">
+      <c r="K52" s="102">
         <f>K51/K36</f>
         <v>1.8581004722073173E-5</v>
       </c>
-      <c r="L52" s="116">
+      <c r="L52" s="102">
         <f t="shared" ref="L52:N52" si="13">L51/L36</f>
-        <v>-1.5895936237724475E-2</v>
-      </c>
-      <c r="M52" s="116">
+        <v>-8.920263953359727E-4</v>
+      </c>
+      <c r="M52" s="102">
         <f t="shared" si="13"/>
-        <v>-3.9316742115623082E-2</v>
-      </c>
-      <c r="N52" s="117">
+        <v>-2.2629753355601209E-3</v>
+      </c>
+      <c r="N52" s="103">
         <f t="shared" si="13"/>
-        <v>-4.4521138725589375E-2</v>
+        <v>-1.2858345297831939E-3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -7106,25 +7106,25 @@
       <c r="G53">
         <v>3148.9079999999999</v>
       </c>
-      <c r="I53" s="87" t="s">
+      <c r="I53" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="121" t="s">
+      <c r="J53" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="K53" s="122">
+      <c r="K53" s="108">
         <f>K39-K38</f>
         <v>-5.8999999999969077E-2</v>
       </c>
-      <c r="L53" s="122">
+      <c r="L53" s="108">
         <f t="shared" ref="L53:N53" si="14">L39-L38</f>
-        <v>-56.433316898366229</v>
-      </c>
-      <c r="M53" s="122">
+        <v>-11.433316898366229</v>
+      </c>
+      <c r="M53" s="108">
         <f t="shared" si="14"/>
         <v>-6.0219999999999771</v>
       </c>
-      <c r="N53" s="123">
+      <c r="N53" s="109">
         <f t="shared" si="14"/>
         <v>8.9250000000000114</v>
       </c>
@@ -7148,23 +7148,23 @@
       <c r="G54">
         <v>35.154000000000003</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="115" t="s">
+      <c r="I54" s="114"/>
+      <c r="J54" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="K54" s="116">
+      <c r="K54" s="102">
         <f>K53/K38</f>
         <v>-1.0378936739495564E-4</v>
       </c>
-      <c r="L54" s="116">
+      <c r="L54" s="102">
         <f t="shared" ref="L54:N54" si="15">L53/L38</f>
-        <v>-0.29594892597446182</v>
-      </c>
-      <c r="M54" s="116">
+        <v>-5.9958869022194751E-2</v>
+      </c>
+      <c r="M54" s="102">
         <f t="shared" si="15"/>
         <v>-5.9179622241002941E-2</v>
       </c>
-      <c r="N54" s="117">
+      <c r="N54" s="103">
         <f t="shared" si="15"/>
         <v>0.1153473344103394</v>
       </c>
@@ -7342,18 +7342,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7390,20 +7390,20 @@
     <row r="3" spans="1:13" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -7477,19 +7477,19 @@
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8201,19 +8201,19 @@
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9007,19 +9007,19 @@
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
       <c r="M51" s="57"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9612,65 +9612,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver xmlns="">
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A22A9AF27DA0D499F9F246035DBC1F4" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62077801544656a2581e98ce30215b0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="76cf5f1b-7b29-42e3-a6af-ab0bb9e3e73a" xmlns:ns3="65fc82e2-9a67-49bf-b6d6-d30791e23caf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e292b7310df7574ca2692f52e7d048b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9877,6 +9818,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver xmlns="">
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9892,23 +9892,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E32566-5825-46D5-9A9F-B3C2A2EB7BEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C771AA62-7091-4265-ACA0-7A1ACC5064B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9928,6 +9911,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{310CEC0E-29D0-4545-A3A0-AD5C4D8B850A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E32566-5825-46D5-9A9F-B3C2A2EB7BEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A04B03F-C5FA-4EBD-8DCF-4A46F3164370}">
   <ds:schemaRefs>
